--- a/documents/Published/Ring Chart/RingChartbyMAQSoftwareChecklist.xlsx
+++ b/documents/Published/Ring Chart/RingChartbyMAQSoftwareChecklist.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PowerBI-CustomVisuals\documents\Published\Ring Chart\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitLab_PowerBIVisuals\documents\Published\Ring Chart\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7CEEC5B-7D35-4346-A5DA-E7AD7DE130CB}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DC92009-26BF-426F-B453-05F1258ABD45}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15285" windowHeight="5310" xr2:uid="{298230A1-4D6D-45FE-9FCF-FFB948C6A0D6}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="136">
   <si>
     <r>
       <t>#</t>
@@ -490,15 +490,6 @@
 3. Update the message to 'No data available'</t>
   </si>
   <si>
-    <t>When there is no data in the Primary measure, then 'No data available' message should be displayed</t>
-  </si>
-  <si>
-    <t>1. Go to formatting pane
-2. Go to Secondary summary labels settings
-3. Update the display units to 'Thousands'
-4. Update the decimal places to '2'</t>
-  </si>
-  <si>
     <t>1. Go to formatting pane
 2. Go to Secondary summary labels settings
 3. Update the color of font to 'Black'
@@ -550,14 +541,6 @@
   </si>
   <si>
     <t>Check whether chart is plotting for negative values and negative value arc settings is working</t>
-  </si>
-  <si>
-    <t>1. Select value column with negative data to 'Primary Measure' input field
-2. Go to formatting pane.
-3. In Negative value arc settings, set the arc position to normal.
-4. In Negative value arc settings, set the arc position to pop out.
-5. In Negative value arc settings, set the arc position to drop in.
-6. In Negative value arc settings, turn on Pattern fill toggle.</t>
   </si>
   <si>
     <t>1. Plot should render for negative values also and data labels should also appear for the respective arc.
@@ -565,6 +548,39 @@
 3. Arc for negative values are poped outside the normal arc.
 4. Arc for negative values are dropped inside the normal arc.
 5. Arc for negative values are filled in line pattern.</t>
+  </si>
+  <si>
+    <t>1. Drag a measure in 'Secondary Measure' field
+2. Go to formatting pane
+3. Go to Secondary summary labels settings
+4. Update the display units to 'Thousands'
+5. Update the decimal places to '2'</t>
+  </si>
+  <si>
+    <t>When we slice the data  and if there is no data in the Primary measure, then 'No data available' message should be displayed</t>
+  </si>
+  <si>
+    <t>1. Select value column with negative data to 'Primary Measure' input field
+2. Go to formatting pane.
+3. In Negative value arc settings, set the arc position to default.
+4. In Negative value arc settings, set the arc position to pop out.
+5. In Negative value arc settings, set the arc position to drop in.
+6. In Negative value arc settings, turn on Pattern fill toggle.</t>
+  </si>
+  <si>
+    <t>Check whether bookmarks feature works</t>
+  </si>
+  <si>
+    <t>1. Go to View and turn on Bookmarks Pane
+2. In the visual, perform selections
+3. In the boomarks pane, add a new bookmark such that selections are retained
+4. Now change selections &amp; click on the saved bookmark</t>
+  </si>
+  <si>
+    <t>1. Bookmarks Pane will be visible on the left
+2. Visual will update according to selections
+3. In the boomarks pane, a new entry of the bookmark will come
+4. The selection state saved in bookmark will be restored in the visual</t>
   </si>
 </sst>
 </file>
@@ -1011,10 +1027,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5BD6B43-E3C6-4B92-AF1B-22928F3D0975}">
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1071,8 +1087,8 @@
       <c r="C4" t="s">
         <v>38</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>39</v>
+      <c r="D4" s="14" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -1261,33 +1277,33 @@
         <v>88</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="20" spans="1:4" s="6" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" s="6" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A20" s="18"/>
       <c r="B20" s="5" t="s">
         <v>85</v>
       </c>
       <c r="C20" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="D20" s="5" t="s">
         <v>118</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="17" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>48</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D21" s="5" t="s">
         <v>90</v>
@@ -1299,7 +1315,7 @@
         <v>91</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D22" s="5" t="s">
         <v>92</v>
@@ -1311,7 +1327,7 @@
         <v>93</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D23" s="5" t="s">
         <v>94</v>
@@ -1418,35 +1434,49 @@
         <v>116</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>117</v>
+        <v>131</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A32" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="C32" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="B32" s="5" t="s">
+      <c r="D32" s="5" t="s">
         <v>122</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="15" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B33" s="14" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C33" s="14" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D33" s="14" t="s">
-        <v>132</v>
+        <v>129</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A34" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="B34" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="C34" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="D34" s="14" t="s">
+        <v>135</v>
       </c>
     </row>
   </sheetData>
